--- a/CashFlow/JBHT_cashflow.xlsx
+++ b/CashFlow/JBHT_cashflow.xlsx
@@ -74,7 +74,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>641910000.0</v>
+        <v>2348000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-5482000.0</v>
+        <v>2204000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>72658000.0</v>
+        <v>1601791000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-29833000.0</v>
+        <v>971641000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-45777000.0</v>
+        <v>457615000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-80088000.0</v>
